--- a/Second stats.xlsx
+++ b/Second stats.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\trimester 2 MIT\project analysis and design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sneha/Desktop/UNI DOCS/T2/Project Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF8AA4-207D-2A40-AD4F-3624FB8E6114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1E55DB5-5D0E-FA4A-BF7E-2351C412AECA}"/>
   </bookViews>
   <sheets>
-    <sheet name="sneha" sheetId="1" r:id="rId1"/>
-    <sheet name="malyun" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$10:$B$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$6:$B$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$6:$D$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$6:$C$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$10:$B$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$6:$B$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$10:$C$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$6:$C$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$12:$C$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>Population</t>
   </si>
@@ -181,309 +194,12 @@
   <si>
     <t>RICE (tonnes)</t>
   </si>
-  <si>
-    <t>RAINFALL</t>
-  </si>
-  <si>
-    <t>YEARS</t>
-  </si>
-  <si>
-    <t>MONTHS</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>1900,</t>
-  </si>
-  <si>
-    <t>1600,</t>
-  </si>
-  <si>
-    <t>1650,</t>
-  </si>
-  <si>
-    <t>1850,</t>
-  </si>
-  <si>
-    <t>1670,</t>
-  </si>
-  <si>
-    <t>"New South Wales"</t>
-  </si>
-  <si>
-    <t>"Western Australia"</t>
-  </si>
-  <si>
-    <t>"Queensland"</t>
-  </si>
-  <si>
-    <t>"Victoria"</t>
-  </si>
-  <si>
-    <t>"South  Australia"</t>
-  </si>
-  <si>
-    <t>2010,</t>
-  </si>
-  <si>
-    <t>2011,</t>
-  </si>
-  <si>
-    <t>2012,</t>
-  </si>
-  <si>
-    <t>2013,</t>
-  </si>
-  <si>
-    <t>2014,</t>
-  </si>
-  <si>
-    <t>2015,</t>
-  </si>
-  <si>
-    <t>2016,</t>
-  </si>
-  <si>
-    <t>2017,</t>
-  </si>
-  <si>
-    <t>7500000,</t>
-  </si>
-  <si>
-    <t>7400000,</t>
-  </si>
-  <si>
-    <t>8000000,</t>
-  </si>
-  <si>
-    <t>7900000,</t>
-  </si>
-  <si>
-    <t>9500000,</t>
-  </si>
-  <si>
-    <t>8500000,</t>
-  </si>
-  <si>
-    <t>9900000,</t>
-  </si>
-  <si>
-    <t>4798000,</t>
-  </si>
-  <si>
-    <t>3378000,</t>
-  </si>
-  <si>
-    <t>1099000,</t>
-  </si>
-  <si>
-    <t>3588000,</t>
-  </si>
-  <si>
-    <t>8262000,</t>
-  </si>
-  <si>
-    <t>101000,</t>
-  </si>
-  <si>
-    <t>353000,</t>
-  </si>
-  <si>
-    <t>268000,</t>
-  </si>
-  <si>
-    <t>2266000,</t>
-  </si>
-  <si>
-    <t>1119000,</t>
-  </si>
-  <si>
-    <t>1120000,</t>
-  </si>
-  <si>
-    <t>21000,</t>
-  </si>
-  <si>
-    <t>112000,</t>
-  </si>
-  <si>
-    <t>667000,</t>
-  </si>
-  <si>
-    <t>7000,</t>
-  </si>
-  <si>
-    <t>"Tasmania"</t>
-  </si>
-  <si>
-    <t>745000,</t>
-  </si>
-  <si>
-    <t>3000,</t>
-  </si>
-  <si>
-    <t>2000,</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>274000,</t>
-  </si>
-  <si>
-    <t>807000,</t>
-  </si>
-  <si>
-    <t>631000,</t>
-  </si>
-  <si>
-    <t>22000,</t>
-  </si>
-  <si>
-    <t>230000,</t>
-  </si>
-  <si>
-    <t>"May"</t>
-  </si>
-  <si>
-    <t>"June"</t>
-  </si>
-  <si>
-    <t>"July"</t>
-  </si>
-  <si>
-    <t>"August"</t>
-  </si>
-  <si>
-    <t>"September"</t>
-  </si>
-  <si>
-    <t>"October"</t>
-  </si>
-  <si>
-    <t>270000,</t>
-  </si>
-  <si>
-    <t>250000,</t>
-  </si>
-  <si>
-    <t>290000,</t>
-  </si>
-  <si>
-    <t>280000,</t>
-  </si>
-  <si>
-    <t>245000,</t>
-  </si>
-  <si>
-    <t>550,</t>
-  </si>
-  <si>
-    <t>600,</t>
-  </si>
-  <si>
-    <t>650,</t>
-  </si>
-  <si>
-    <t>500,</t>
-  </si>
-  <si>
-    <t>800,</t>
-  </si>
-  <si>
-    <t>AVG RAINFALL(MM)</t>
-  </si>
-  <si>
-    <t>1262000,</t>
-  </si>
-  <si>
-    <t>1121000,</t>
-  </si>
-  <si>
-    <t>1255000,</t>
-  </si>
-  <si>
-    <t>1198000,</t>
-  </si>
-  <si>
-    <t>1161000,</t>
-  </si>
-  <si>
-    <t>128200,</t>
-  </si>
-  <si>
-    <t>210000,</t>
-  </si>
-  <si>
-    <t>223900,</t>
-  </si>
-  <si>
-    <t>222900,</t>
-  </si>
-  <si>
-    <t>220900,</t>
-  </si>
-  <si>
-    <t>478,</t>
-  </si>
-  <si>
-    <t>476,</t>
-  </si>
-  <si>
-    <t>701,</t>
-  </si>
-  <si>
-    <t>705,</t>
-  </si>
-  <si>
-    <t>430,</t>
-  </si>
-  <si>
-    <t>446,</t>
-  </si>
-  <si>
-    <t>545,</t>
-  </si>
-  <si>
-    <t>504,</t>
-  </si>
-  <si>
-    <t>115000,</t>
-  </si>
-  <si>
-    <t>105000,</t>
-  </si>
-  <si>
-    <t>91500,</t>
-  </si>
-  <si>
-    <t>123000,</t>
-  </si>
-  <si>
-    <t>110000,</t>
-  </si>
-  <si>
-    <t>81000,</t>
-  </si>
-  <si>
-    <t>150000,</t>
-  </si>
-  <si>
-    <t>103600,</t>
-  </si>
-  <si>
-    <t>114000,</t>
-  </si>
-  <si>
-    <t>108300,</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,13 +286,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -610,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,7 +362,6 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,37 +675,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F93109-4790-FF48-B147-5DF7D687CDDF}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="H42" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25">
+    <row r="1" spans="1:17" ht="26">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="23.25">
+    <row r="2" spans="1:17" ht="24">
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="26.25">
+    <row r="3" spans="1:17" ht="26">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="23.25">
+    <row r="4" spans="1:17" ht="24">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="62.1" customHeight="1">
+    <row r="6" spans="1:17" ht="62" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.5">
+    <row r="7" spans="1:17" ht="20">
       <c r="B7" s="7">
         <v>7704300</v>
       </c>
@@ -1106,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.5">
+    <row r="8" spans="1:17" ht="20">
       <c r="B8" s="7">
         <v>2613700</v>
       </c>
@@ -1135,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.5">
+    <row r="9" spans="1:17" ht="20">
       <c r="B9" s="7">
         <v>4827000</v>
       </c>
@@ -1164,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.5">
+    <row r="10" spans="1:17" ht="20">
       <c r="B10" s="7">
         <v>6039100</v>
       </c>
@@ -1193,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.5">
+    <row r="11" spans="1:17" ht="20">
       <c r="B11" s="7">
         <v>1706500</v>
       </c>
@@ -1222,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19.5">
+    <row r="12" spans="1:17" ht="20">
       <c r="B12" s="7">
         <v>518500</v>
       </c>
@@ -1251,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75">
+    <row r="13" spans="1:17" ht="19">
       <c r="G13" s="15">
         <v>24125848</v>
       </c>
@@ -1271,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75">
+    <row r="14" spans="1:17" ht="19">
       <c r="G14" s="15">
         <v>24450561</v>
       </c>
@@ -1294,7 +1002,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75">
+    <row r="15" spans="1:17" ht="19">
       <c r="G15" s="16"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
@@ -1311,7 +1019,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75">
+    <row r="16" spans="1:17" ht="19">
       <c r="L16" s="15">
         <v>24450561</v>
       </c>
@@ -1325,7 +1033,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:19" ht="18.75">
+    <row r="17" spans="1:19" ht="19">
       <c r="L17" s="15">
         <v>24450561</v>
       </c>
@@ -1339,7 +1047,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:19" ht="18.75">
+    <row r="18" spans="1:19" ht="19">
       <c r="L18" s="15">
         <v>24450561</v>
       </c>
@@ -1375,7 +1083,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:19" ht="23.25">
+    <row r="23" spans="1:19" ht="24">
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1393,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="26.25">
+    <row r="24" spans="1:19" ht="26">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -1407,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="23.25">
+    <row r="25" spans="1:19" ht="24">
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="45.95" customHeight="1">
+    <row r="27" spans="1:19" ht="46" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
@@ -1484,7 +1192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="19.5">
+    <row r="28" spans="1:19" ht="20">
       <c r="B28" s="7">
         <v>7704300</v>
       </c>
@@ -1523,7 +1231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="19.5">
+    <row r="29" spans="1:19" ht="20">
       <c r="B29" s="7">
         <v>2613700</v>
       </c>
@@ -1562,7 +1270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="19.5">
+    <row r="30" spans="1:19" ht="20">
       <c r="B30" s="7">
         <v>4827000</v>
       </c>
@@ -1601,7 +1309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="19.5">
+    <row r="31" spans="1:19" ht="20">
       <c r="B31" s="7">
         <v>6039100</v>
       </c>
@@ -1640,7 +1348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="19.5">
+    <row r="32" spans="1:19" ht="20">
       <c r="B32" s="7">
         <v>1706500</v>
       </c>
@@ -1679,7 +1387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5">
+    <row r="33" spans="1:19" ht="20">
       <c r="B33" s="7">
         <v>518500</v>
       </c>
@@ -1712,7 +1420,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="1:19" ht="18.75">
+    <row r="34" spans="1:19" ht="19">
       <c r="G34" s="15">
         <v>24125848</v>
       </c>
@@ -1736,7 +1444,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19" ht="18.75">
+    <row r="35" spans="1:19" ht="19">
       <c r="G35" s="15">
         <v>24450561</v>
       </c>
@@ -1760,7 +1468,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" ht="18.75">
+    <row r="36" spans="1:19" ht="19">
       <c r="L36" s="15">
         <v>24450561</v>
       </c>
@@ -1772,7 +1480,7 @@
       </c>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="18.75">
+    <row r="37" spans="1:19" ht="19">
       <c r="L37" s="15">
         <v>24450561</v>
       </c>
@@ -1784,7 +1492,7 @@
       </c>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:19" ht="18.75">
+    <row r="38" spans="1:19" ht="19">
       <c r="L38" s="15">
         <v>24450561</v>
       </c>
@@ -1796,7 +1504,7 @@
       </c>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="1:19" ht="18.75">
+    <row r="39" spans="1:19" ht="19">
       <c r="L39" s="15">
         <v>24450561</v>
       </c>
@@ -1811,7 +1519,7 @@
     <row r="40" spans="1:19">
       <c r="M40" s="6"/>
     </row>
-    <row r="44" spans="1:19" ht="23.25">
+    <row r="44" spans="1:19" ht="24">
       <c r="C44" s="21" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="26.25">
+    <row r="45" spans="1:19" ht="26">
       <c r="A45" s="10" t="s">
         <v>14</v>
       </c>
@@ -1833,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="23.25">
+    <row r="46" spans="1:19" ht="24">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="37.5">
+    <row r="48" spans="1:19" ht="19">
       <c r="B48" s="5" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19.5">
+    <row r="50" spans="2:9" ht="20">
       <c r="B50" s="7">
         <v>7704300</v>
       </c>
@@ -1908,7 +1616,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="18.75">
+    <row r="51" spans="2:9" ht="19">
       <c r="B51" s="7">
         <v>2613700</v>
       </c>
@@ -1925,7 +1633,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="18.75">
+    <row r="52" spans="2:9" ht="19">
       <c r="B52" s="7">
         <v>4827000</v>
       </c>
@@ -1942,7 +1650,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="18.75">
+    <row r="53" spans="2:9" ht="19">
       <c r="B53" s="7">
         <v>6039100</v>
       </c>
@@ -1959,7 +1667,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="18.75">
+    <row r="54" spans="2:9" ht="19">
       <c r="B54" s="7">
         <v>1706500</v>
       </c>
@@ -1976,7 +1684,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19.5">
+    <row r="55" spans="2:9" ht="20">
       <c r="B55" s="7">
         <v>518500</v>
       </c>
@@ -1993,7 +1701,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="18.75">
+    <row r="56" spans="2:9" ht="19">
       <c r="G56" s="15">
         <v>24125848</v>
       </c>
@@ -2004,7 +1712,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="18.75">
+    <row r="57" spans="2:9" ht="19">
       <c r="G57" s="15">
         <v>24450561</v>
       </c>
@@ -2093,819 +1801,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:L46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:12" ht="23.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="56.25">
-      <c r="B8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="18.75">
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="18.75">
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="18.75">
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="18.75">
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="18">
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="18">
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="23.25">
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="23.25">
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="37.5">
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="18.75">
-      <c r="B24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="18.75">
-      <c r="B25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="18.75">
-      <c r="B26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" t="s">
-        <v>105</v>
-      </c>
-      <c r="K26" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="18.75">
-      <c r="B27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K27" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="18.75">
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="18.75">
-      <c r="B29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="18">
-      <c r="F30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="18">
-      <c r="F31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="18">
-      <c r="H32" s="13"/>
-    </row>
-    <row r="34" spans="2:12" ht="23.25">
-      <c r="C34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="23.25">
-      <c r="B36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="37.5">
-      <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="18.75">
-      <c r="B39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" t="s">
-        <v>133</v>
-      </c>
-      <c r="L39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="18.75">
-      <c r="B40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
-      </c>
-      <c r="L40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="18.75">
-      <c r="B41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" t="s">
-        <v>105</v>
-      </c>
-      <c r="K41" t="s">
-        <v>135</v>
-      </c>
-      <c r="L41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="18.75">
-      <c r="B42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" t="s">
-        <v>104</v>
-      </c>
-      <c r="K42" t="s">
-        <v>136</v>
-      </c>
-      <c r="L42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="18.75">
-      <c r="B43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="18.75">
-      <c r="B44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J44" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" t="s">
-        <v>137</v>
-      </c>
-      <c r="L44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="18">
-      <c r="F45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="18">
-      <c r="F46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>